--- a/A1_tabela_teste.xlsx
+++ b/A1_tabela_teste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63fbdbda17b5124d/Área de Trabalho/PyQt6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63fbdbda17b5124d/Área de Trabalho/Programa git/pyqt6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{B523330B-55D1-4918-91DC-BBA81349BAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ACBA1E9-24C7-4FF4-8004-E22EF5141B9D}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{B523330B-55D1-4918-91DC-BBA81349BAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA46C771-D64C-4191-8F2B-137A3CE15817}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,15 +604,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
     <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" customWidth="1"/>
